--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76FB983-7473-4121-AC49-7C157C0A34D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2A3FE-0E56-4F80-ADE5-828AE0FFDAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15744" yWindow="3660" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardMain" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>cardId</t>
     <phoneticPr fontId="1"/>
@@ -259,19 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一人っ子政策</t>
-    <rPh sb="0" eb="2">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一人っ子政策のカード。</t>
     <rPh sb="0" eb="2">
       <t>ヒトリ</t>
@@ -282,19 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日米和親条約</t>
-    <rPh sb="0" eb="2">
-      <t>ニチベイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ワシン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日米和親条約のカード。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -306,14 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>img_1000001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_1000002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一人っ子政策の効果の説明文</t>
     <rPh sb="10" eb="13">
       <t>セツメイブン</t>
@@ -349,30 +315,107 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中国</t>
+    <t>日本</t>
     <rPh sb="0" eb="2">
-      <t>チュウゴク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカの説明文</t>
-    <rPh sb="5" eb="8">
-      <t>セツメイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中国の説明文</t>
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本は太平洋に浮かぶ島国で、人口が密集した都市、皇室の宮殿や御所、山岳地帯の国立公園、数千もの神社仏閣があります。沖縄の亜熱帯ビーチがある九州、東京や広島平和記念公園がある本州、スキーで有名な北海道を新幹線で行き来できます。首都の東京は、高層ビル、ショッピング、ポップ カルチャーで知られています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田信長</t>
+    <rPh sb="0" eb="4">
+      <t>オダノブナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊能忠敬</t>
+    <rPh sb="0" eb="4">
+      <t>イノウタダタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_person_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_person_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急事態宣言</t>
+    <rPh sb="0" eb="4">
+      <t>キンキュウジタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_policy_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_policy_002</t>
+  </si>
+  <si>
+    <t>生類憐みの令</t>
+    <rPh sb="0" eb="3">
+      <t>ショウルイアワレ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八ツ橋</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_goods_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_goods_002</t>
+  </si>
+  <si>
+    <t>ゼロ戦</t>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_building_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_building_002</t>
+  </si>
+  <si>
+    <t>軍艦島</t>
+    <rPh sb="0" eb="3">
+      <t>グンカンジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京スカイツリー</t>
     <rPh sb="0" eb="2">
-      <t>チュウゴク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>セツメイブン</t>
+      <t>トウキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -699,21 +742,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593104F7-954C-4DB3-83B5-D4D85D589480}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -773,10 +816,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1000001</v>
+        <v>100101001</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -791,21 +834,21 @@
         <v>1001</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1000002</v>
+        <v>100101002</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>10002</v>
@@ -814,13 +857,133 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>100102001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>10003</v>
+      </c>
+      <c r="F5">
+        <v>1001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>100102002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10004</v>
+      </c>
+      <c r="F6">
+        <v>1001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>100103001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10005</v>
+      </c>
+      <c r="F7">
+        <v>1001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>100103002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>10006</v>
+      </c>
+      <c r="F8">
+        <v>1001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>100104001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>10007</v>
+      </c>
+      <c r="F9">
+        <v>1001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>100104002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>10008</v>
+      </c>
+      <c r="F10">
+        <v>1001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -834,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518A95A-FFCC-4E0B-84F1-96DC87F30AAC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -885,7 +1048,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>101</v>
@@ -894,7 +1057,7 @@
         <v>100001</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -902,7 +1065,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>102</v>
@@ -911,7 +1074,7 @@
         <v>100002</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +1088,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1020,7 +1183,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1028,7 +1191,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1039,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB060794-09D8-4349-BF0F-C225BB52104D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1079,21 +1242,10 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2A3FE-0E56-4F80-ADE5-828AE0FFDAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7CFE8-A958-4364-82F4-E262251FB859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="4695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardMain" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>cardId</t>
     <phoneticPr fontId="1"/>
@@ -259,27 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一人っ子政策のカード。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>コセイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日米和親条約のカード。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一人っ子政策の効果</t>
-    <rPh sb="7" eb="9">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一人っ子政策の効果の説明文</t>
     <rPh sb="10" eb="13">
       <t>セツメイブン</t>
@@ -287,13 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日米和親条約の効果</t>
-    <rPh sb="7" eb="9">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日米和親条約の効果の説明文</t>
     <rPh sb="10" eb="13">
       <t>セツメイブン</t>
@@ -417,6 +389,74 @@
     <rPh sb="0" eb="2">
       <t>トウキョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本の戦国時代から安土桃山時代にかけての武将、戦国大名。戦国の三英傑の一人。 尾張国出身。織田信秀の嫡男。家督争いの混乱を収めた後に、桶狭間の戦いで今川義元を討ち取り、勢力を拡大した。足利義昭を奉じて上洛し、後には義昭を追放することで、畿内を中心に独自の中央政権を確立して天下人となった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江戸時代の商人、天文学者・地理学者・測量家である。通称は三郎右衛門、勘解由。字は子斉、号は東河。 寛政12年から文化13年まで、17年をかけて日本全国を測量して『大日本沿海輿地全図』を完成させ、国土の正確な姿を明らかにした。</t>
+  </si>
+  <si>
+    <t>新型インフルエンザ等対策特別措置法に基づいて日本国政府が発する布告。日本において新型インフルエンザなどの感染拡大によって国民生活や社会経済活動に甚大な影響が出ると判断した場合に基本的対処方針分科会の諮問を経て、内閣総理大臣が期間・区域を決めて発令することとされている。</t>
+  </si>
+  <si>
+    <t>江戸時代前期、江戸幕府の第5代将軍・徳川綱吉によって制定された、「生類を憐れむ」ことを趣旨とした動物・嬰児・傷病人保護を目的とした諸法令の通称。1本の成文法ではなく、綱吉時代に行われた生類を憐れむことを趣旨とした諸法令の総体である。 保護する対象は、捨て子や病人、高齢者、そして動物である。</t>
+  </si>
+  <si>
+    <t>京都を代表する和菓子の一つ。後述するが派生菓子として「生八ツ橋」が存在し、本来の八ツ橋は区別するために「焼き八ツ橋」とも呼ばれる</t>
+  </si>
+  <si>
+    <t>零式艦上戦闘機は、第二次世界大戦期における日本海軍の艦上戦闘機。略称、零戦。試作名称は十二試艦上戦闘機。</t>
+  </si>
+  <si>
+    <t>不気味な観光スポットである端島は、軍艦島とも呼ばれ、沖合にある廃墟となった炭鉱施設です。観光客は草木が生い茂る産業エリア、ほぼ廃墟と化したコンクリートの作業員向け施設、いわゆる「地獄への階段」を回ります。中央には静かな神社があり、外壁の上部からは東シナ海を望めます。ジェームス ボンド主演の映画「スカイフォール」は一部この島で撮影されました。</t>
+  </si>
+  <si>
+    <t>東京都墨田区押上1-1-2にある電波塔であり、東京のランドマークの一つである。2012年2月29日に完成し、同年5月22日に電波塔・観光施設として開業した。観光・商業施設やオフィスビルが併設されており、電波塔を含め周辺施設は「東京スカイツリータウン」と呼ばれている。</t>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1534~1582</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1745~1818</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1685~1709</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1689~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1940~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~1974</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012~</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -424,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +474,28 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -460,8 +522,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -742,27 +808,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593104F7-954C-4DB3-83B5-D4D85D589480}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -785,10 +852,13 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -811,15 +881,18 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>100101001</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -834,18 +907,21 @@
         <v>1001</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>100101002</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -854,24 +930,27 @@
         <v>10002</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1001</v>
       </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>100102001</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -879,19 +958,28 @@
       <c r="D5">
         <v>10003</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5">
         <v>1001</v>
       </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>100102002</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -899,19 +987,28 @@
       <c r="D6">
         <v>10004</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>1001</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>100103001</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -919,19 +1016,28 @@
       <c r="D7">
         <v>10005</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>1001</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>100103002</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -939,19 +1045,28 @@
       <c r="D8">
         <v>10006</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>1001</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>100104001</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -959,19 +1074,28 @@
       <c r="D9">
         <v>10007</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9">
         <v>1001</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>100104002</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -979,11 +1103,20 @@
       <c r="D10">
         <v>10008</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
         <v>1001</v>
       </c>
-      <c r="H10" t="s">
-        <v>62</v>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -995,18 +1128,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518A95A-FFCC-4E0B-84F1-96DC87F30AAC}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1048,7 +1181,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>101</v>
@@ -1057,7 +1190,7 @@
         <v>100001</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1065,7 +1198,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>102</v>
@@ -1074,7 +1207,91 @@
         <v>100002</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>100003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>100005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>10006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>10007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>100007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>100008</v>
       </c>
     </row>
   </sheetData>
@@ -1085,15 +1302,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB2275B-2918-473B-BCBA-1F1FB5A7B771}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -1140,6 +1357,36 @@
       </c>
       <c r="C4">
         <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>100003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>100005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>100007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>100008</v>
       </c>
     </row>
   </sheetData>
@@ -1153,10 +1400,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -1183,7 +1430,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1191,7 +1438,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1208,11 +1455,11 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1242,10 +1489,10 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7CFE8-A958-4364-82F4-E262251FB859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B1A6B-BC9B-4C36-B76B-6EBD075EEB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="4695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardMain" sheetId="2" r:id="rId1"/>
@@ -24,67 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
-  <si>
-    <t>cardId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cardName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cardType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rarity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectGroupId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectText</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectAbilityId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectTriggerType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abilityTriggerType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abilityName</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>カード番号</t>
     <rPh sb="3" eb="5">
@@ -209,10 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>countryId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>国番号</t>
     <rPh sb="0" eb="3">
       <t>クニバンゴウ</t>
@@ -220,18 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>countryId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>countryName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>countryText</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>国番号</t>
     <rPh sb="0" eb="1">
       <t>クニ</t>
@@ -259,34 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一人っ子政策の効果の説明文</t>
-    <rPh sb="10" eb="13">
-      <t>セツメイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日米和親条約の効果の説明文</t>
-    <rPh sb="10" eb="13">
-      <t>セツメイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一人っ子政策の能力</t>
-    <rPh sb="7" eb="9">
-      <t>ノウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日米和親条約の能力</t>
-    <rPh sb="7" eb="9">
-      <t>ノウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日本</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
@@ -424,10 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>year</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1534~1582</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,6 +349,105 @@
   </si>
   <si>
     <t>2012~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_cardId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_cardName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_cardType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_rarity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_countryId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectTriggerType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectGroupId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectAbilityId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityTriggerType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_countryName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_countryText</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -808,91 +799,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593104F7-954C-4DB3-83B5-D4D85D589480}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>100101001</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -906,22 +916,31 @@
       <c r="F3">
         <v>1001</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>100101002</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -935,22 +954,31 @@
       <c r="F4">
         <v>1001</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>100102001</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -964,22 +992,31 @@
       <c r="F5">
         <v>1001</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>100102002</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -993,22 +1030,31 @@
       <c r="F6">
         <v>1001</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>100103001</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1022,22 +1068,31 @@
       <c r="F7">
         <v>1001</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>100103002</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1051,22 +1106,31 @@
       <c r="F8">
         <v>1001</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>100104001</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1080,22 +1144,31 @@
       <c r="F9">
         <v>1001</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>100104002</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1109,14 +1182,23 @@
       <c r="F10">
         <v>1001</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>58</v>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1131,49 +1213,49 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1181,7 +1263,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>101</v>
@@ -1190,7 +1272,7 @@
         <v>100001</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1198,7 +1280,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>102</v>
@@ -1207,7 +1289,7 @@
         <v>100002</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1215,13 +1297,16 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>103</v>
       </c>
       <c r="D5">
         <v>100003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1229,13 +1314,16 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>104</v>
       </c>
       <c r="D6">
         <v>100004</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1243,13 +1331,16 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>105</v>
       </c>
       <c r="D7">
         <v>100005</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1257,13 +1348,16 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>106</v>
       </c>
       <c r="D8">
         <v>100006</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1271,13 +1365,16 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>107</v>
       </c>
       <c r="D9">
         <v>100007</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1285,13 +1382,16 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>108</v>
       </c>
       <c r="D10">
         <v>100008</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1304,37 +1404,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB2275B-2918-473B-BCBA-1F1FB5A7B771}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1363,30 +1463,66 @@
       <c r="A5">
         <v>100003</v>
       </c>
+      <c r="B5">
+        <v>10003</v>
+      </c>
+      <c r="C5">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>100004</v>
       </c>
+      <c r="B6">
+        <v>10004</v>
+      </c>
+      <c r="C6">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>100005</v>
       </c>
+      <c r="B7">
+        <v>10005</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>100006</v>
       </c>
+      <c r="B8">
+        <v>10006</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>100007</v>
       </c>
+      <c r="B9">
+        <v>10007</v>
+      </c>
+      <c r="C9">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>100008</v>
+      </c>
+      <c r="B10">
+        <v>10008</v>
+      </c>
+      <c r="C10">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1533,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -1411,18 +1547,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1430,7 +1566,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1438,7 +1574,55 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>10005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>10006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>10007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1451,37 +1635,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB060794-09D8-4349-BF0F-C225BB52104D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1489,10 +1673,10 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B1A6B-BC9B-4C36-B76B-6EBD075EEB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA44C84-521A-40EB-AA53-5F9DF4B8FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
   <si>
     <t>カード番号</t>
     <rPh sb="3" eb="5">
@@ -47,6 +47,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>レアリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像名</t>
+    <rPh sb="0" eb="3">
+      <t>ガゾウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>効果番号</t>
     <rPh sb="0" eb="4">
       <t>コウカバンゴウ</t>
@@ -54,31 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レアリティ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明文</t>
-    <rPh sb="0" eb="3">
-      <t>セツメイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像名</t>
-    <rPh sb="0" eb="3">
-      <t>ガゾウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果番号</t>
-    <rPh sb="0" eb="4">
-      <t>コウカバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>効果名</t>
     <rPh sb="0" eb="3">
       <t>コウカメイ</t>
@@ -419,35 +412,216 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>_effectGroupId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectAbilityId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_countryName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_countryText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果発動タイミング</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果発動トリガー</t>
+    <rPh sb="0" eb="4">
+      <t>コウカハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectTimingType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>_effectTriggerType</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_effectGroupId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_effectText</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_effectAbilityId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_abilityTriggerType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_abilityName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_countryName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_countryText</t>
+    <t>_effectConditionType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityConditionType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果種別</t>
+    <rPh sb="0" eb="4">
+      <t>コウカシュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果確率</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityProbability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果番号1</t>
+    <rPh sb="0" eb="4">
+      <t>コウカバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectId1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果番号2</t>
+    <rPh sb="0" eb="4">
+      <t>コウカバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectId2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果番号3</t>
+    <rPh sb="0" eb="4">
+      <t>コウカバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectId3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果発動条件値</t>
+    <rPh sb="0" eb="4">
+      <t>コウカハツドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectConditionParameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果発動タイミング値</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectTimingParameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果発動トリガー値</t>
+    <rPh sb="0" eb="4">
+      <t>コウカハツドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_effectTriggerParameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityConditionParameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力発動条件値</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ハツドウジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果数値3</t>
+    <rPh sb="0" eb="4">
+      <t>コウカスウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityParameter3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果数値2</t>
+    <rPh sb="0" eb="4">
+      <t>コウカスウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityParameter2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果数値1</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_abilityParameter1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -799,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593104F7-954C-4DB3-83B5-D4D85D589480}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -810,18 +984,19 @@
     <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.19921875" customWidth="1"/>
+    <col min="12" max="12" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,77 +1007,89 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>66</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>67</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>100101001</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -911,36 +1098,42 @@
         <v>10001</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1001</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
       <c r="H3">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>47</v>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>100101002</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -949,36 +1142,42 @@
         <v>10002</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>1001</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>100102001</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -987,36 +1186,42 @@
         <v>10003</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1001</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>100102002</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1025,36 +1230,42 @@
         <v>10004</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1001</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>100103001</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1063,36 +1274,42 @@
         <v>10005</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>1001</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>100103002</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1101,36 +1318,42 @@
         <v>10006</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>1001</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>101</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>100104001</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1139,36 +1362,42 @@
         <v>10007</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>1001</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
+        <v>101</v>
+      </c>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>100104002</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1177,28 +1406,34 @@
         <v>10008</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1001</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>101</v>
+      </c>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
+      <c r="L10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1210,188 +1445,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518A95A-FFCC-4E0B-84F1-96DC87F30AAC}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.296875" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>101</v>
-      </c>
-      <c r="D3">
         <v>100001</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>102</v>
-      </c>
-      <c r="D4">
         <v>100002</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>103</v>
-      </c>
-      <c r="D5">
         <v>100003</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>104</v>
-      </c>
-      <c r="D6">
         <v>100004</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>105</v>
-      </c>
-      <c r="D7">
         <v>100005</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>106</v>
-      </c>
-      <c r="D8">
         <v>100006</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>107</v>
-      </c>
-      <c r="D9">
         <v>100007</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>108</v>
-      </c>
-      <c r="D10">
         <v>100008</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
+      <c r="J10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1402,127 +1648,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB2275B-2918-473B-BCBA-1F1FB5A7B771}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
       <c r="C2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>100001</v>
       </c>
       <c r="B3">
-        <v>10001</v>
-      </c>
-      <c r="C3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>100002</v>
       </c>
       <c r="B4">
-        <v>10002</v>
-      </c>
-      <c r="C4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>100003</v>
       </c>
       <c r="B5">
-        <v>10003</v>
-      </c>
-      <c r="C5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>100004</v>
       </c>
       <c r="B6">
-        <v>10004</v>
-      </c>
-      <c r="C6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>100005</v>
       </c>
       <c r="B7">
-        <v>10005</v>
-      </c>
-      <c r="C7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>100006</v>
       </c>
       <c r="B8">
-        <v>10006</v>
-      </c>
-      <c r="C8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>100007</v>
       </c>
       <c r="B9">
-        <v>10007</v>
-      </c>
-      <c r="C9">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>100008</v>
       </c>
       <c r="B10">
-        <v>10008</v>
-      </c>
-      <c r="C10">
-        <v>108</v>
+        <v>1000008</v>
       </c>
     </row>
   </sheetData>
@@ -1533,96 +1762,129 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +1898,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1648,35 +1910,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA44C84-521A-40EB-AA53-5F9DF4B8FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89AD517-6D63-4FB3-9537-D2E3EBCFA2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardMain" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>カード番号</t>
     <rPh sb="3" eb="5">
@@ -79,16 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>効果グループ番号</t>
-    <rPh sb="0" eb="2">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>効果説明文</t>
     <rPh sb="0" eb="2">
       <t>コウカ</t>
@@ -412,10 +402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_effectGroupId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>_effectText</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -622,6 +608,134 @@
   </si>
   <si>
     <t>_abilityParameter1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_userType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用者・発動者</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハツドウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札３枚ドロー</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札を上から３枚引き、手札に加える。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP100回復</t>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次相手ターン時にユニットへの攻撃を防ぐ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメージ-50</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃+50</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手ユニット1枚に5ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラッシュから2枚選び山札に戻す</t>
+    <rPh sb="8" eb="9">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から政策カードを1枚取得</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593104F7-954C-4DB3-83B5-D4D85D589480}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -984,7 +1098,8 @@
     <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
     <col min="6" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10.19921875" customWidth="1"/>
@@ -1007,34 +1122,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -1042,60 +1157,60 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
       <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>67</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>100101001</v>
+        <v>1011001</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10001</v>
+        <v>10000003</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1119,27 +1234,27 @@
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>100101002</v>
+        <v>1011002</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10002</v>
+        <v>10000002</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1163,27 +1278,27 @@
         <v>3</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>100102001</v>
+        <v>1012001</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>10003</v>
+        <v>10000001</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1207,27 +1322,27 @@
         <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>100102002</v>
+        <v>1012002</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>10004</v>
+        <v>10000004</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1251,27 +1366,27 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>100103001</v>
+        <v>1013001</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>10005</v>
+        <v>10000005</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1295,27 +1410,27 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>100103002</v>
+        <v>1013002</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>10006</v>
+        <v>10000006</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1339,27 +1454,27 @@
         <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>100104001</v>
+        <v>1014001</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>10007</v>
+        <v>10000007</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1383,27 +1498,27 @@
         <v>10</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>100104002</v>
+        <v>1014002</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>10008</v>
+        <v>10000008</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1427,13 +1542,13 @@
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1445,26 +1560,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518A95A-FFCC-4E0B-84F1-96DC87F30AAC}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.296875" customWidth="1"/>
-    <col min="9" max="9" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1472,172 +1587,286 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
-        <v>10001</v>
+        <v>10000001</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>9003</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>8004</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>10000002</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
-        <v>100001</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>9003</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>8002</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>10002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>100002</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>10003</v>
+        <v>10000003</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>100003</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>9003</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>8002</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
-        <v>10004</v>
+        <v>10000004</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>9003</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>8004</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>10000005</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C6">
-        <v>100004</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>9003</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>8004</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>10005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>100005</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8">
-        <v>10006</v>
+        <v>10000006</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>100006</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>9003</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>8004</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
-        <v>10007</v>
+        <v>10000007</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>9003</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>8002</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>10000008</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C9">
-        <v>100007</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>9003</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>8002</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>10008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>100008</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1880,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1664,94 +1893,142 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>100001</v>
+        <v>10000001</v>
       </c>
       <c r="B3">
-        <v>1000001</v>
+        <v>1100003</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>100002</v>
+        <v>10000002</v>
       </c>
       <c r="B4">
         <v>1000002</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>100003</v>
+        <v>10000003</v>
       </c>
       <c r="B5">
         <v>1000003</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>100004</v>
+        <v>10000004</v>
       </c>
       <c r="B6">
         <v>1000004</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>100005</v>
+        <v>10000005</v>
       </c>
       <c r="B7">
         <v>1000005</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>100006</v>
+        <v>10000006</v>
       </c>
       <c r="B8">
         <v>1000006</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>100007</v>
+        <v>10000007</v>
       </c>
       <c r="B9">
         <v>1000007</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>100008</v>
+        <v>10000008</v>
       </c>
       <c r="B10">
         <v>1000008</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1762,33 +2039,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="7" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
         <v>102</v>
@@ -1797,21 +2075,24 @@
         <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>103</v>
@@ -1820,71 +2101,218 @@
         <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>10001</v>
+        <v>1100003</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="C3">
+        <v>100001</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>10002</v>
+        <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>100002</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>10003</v>
+        <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>100003</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>10004</v>
+        <v>1000004</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>100004</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>10005</v>
+        <v>1000005</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="C7">
+        <v>100005</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>10006</v>
+        <v>1000006</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>100006</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>10007</v>
+        <v>1000007</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <v>100007</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>10008</v>
+        <v>1000008</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>112</v>
+      </c>
+      <c r="C10">
+        <v>100008</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB060794-09D8-4349-BF0F-C225BB52104D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1910,24 +2338,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1935,10 +2363,10 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89AD517-6D63-4FB3-9537-D2E3EBCFA2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC329FF8-118D-49EB-ABAD-97B74E79FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,13 +690,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃+50</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相手ユニット1枚に5ダメージ</t>
     <rPh sb="0" eb="2">
       <t>アイテ</t>
@@ -735,6 +728,13 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力+50</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2042,7 +2042,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2141,7 +2141,7 @@
         <v>108</v>
       </c>
       <c r="C4">
-        <v>100002</v>
+        <v>400001</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2164,10 +2164,10 @@
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5">
-        <v>100003</v>
+        <v>510001</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2190,10 +2190,10 @@
         <v>1000004</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6">
-        <v>100004</v>
+        <v>105001</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2216,10 +2216,10 @@
         <v>1000005</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7">
-        <v>100005</v>
+        <v>200001</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>109</v>
       </c>
       <c r="C8">
-        <v>100006</v>
+        <v>610002</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>110</v>
       </c>
       <c r="C9">
-        <v>100007</v>
+        <v>610001</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2294,10 +2294,10 @@
         <v>1000008</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10">
-        <v>100008</v>
+        <v>620001</v>
       </c>
       <c r="D10">
         <v>1</v>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC329FF8-118D-49EB-ABAD-97B74E79FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEF3315-F9D6-455F-9437-007859D32455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
   <si>
     <t>カード番号</t>
     <rPh sb="3" eb="5">
@@ -480,39 +480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>効果番号1</t>
-    <rPh sb="0" eb="4">
-      <t>コウカバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_effectId1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果番号2</t>
-    <rPh sb="0" eb="4">
-      <t>コウカバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_effectId2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果番号3</t>
-    <rPh sb="0" eb="4">
-      <t>コウカバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_effectId3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>効果発動条件値</t>
     <rPh sb="0" eb="4">
       <t>コウカハツドウ</t>
@@ -736,6 +703,20 @@
     <rPh sb="0" eb="3">
       <t>グンジリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発動順序</t>
+    <rPh sb="0" eb="2">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_order</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1087,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593104F7-954C-4DB3-83B5-D4D85D589480}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1099,19 +1080,18 @@
     <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.19921875" customWidth="1"/>
-    <col min="12" max="12" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,40 +1102,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1166,40 +1140,34 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1011001</v>
       </c>
@@ -1213,37 +1181,31 @@
         <v>10000003</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1011002</v>
       </c>
@@ -1257,37 +1219,31 @@
         <v>10000002</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N4" t="s">
+      <c r="L4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1012001</v>
       </c>
@@ -1301,37 +1257,31 @@
         <v>10000001</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N5" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1012002</v>
       </c>
@@ -1345,37 +1295,31 @@
         <v>10000004</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s">
+      <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="N6" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1013001</v>
       </c>
@@ -1389,37 +1333,31 @@
         <v>10000005</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M7" t="s">
+      <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="N7" t="s">
+      <c r="L7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1013002</v>
       </c>
@@ -1433,37 +1371,31 @@
         <v>10000006</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M8" t="s">
+      <c r="K8" t="s">
         <v>50</v>
       </c>
-      <c r="N8" t="s">
+      <c r="L8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1014001</v>
       </c>
@@ -1477,37 +1409,31 @@
         <v>10000007</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
         <v>10</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M9" t="s">
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="N9" t="s">
+      <c r="L9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1014002</v>
       </c>
@@ -1521,33 +1447,27 @@
         <v>10000008</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
         <v>10</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N10" t="s">
+      <c r="L10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1590,19 +1510,19 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
         <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -1619,19 +1539,19 @@
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>69</v>
@@ -1663,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1877,21 +1797,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB2275B-2918-473B-BCBA-1F1FB5A7B771}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1899,13 +1820,16 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1913,13 +1837,16 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>10000001</v>
       </c>
@@ -1932,8 +1859,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>10000002</v>
       </c>
@@ -1946,8 +1876,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>10000003</v>
       </c>
@@ -1960,8 +1893,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>10000004</v>
       </c>
@@ -1974,8 +1910,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>10000005</v>
       </c>
@@ -1988,8 +1927,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>10000006</v>
       </c>
@@ -2002,8 +1944,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>10000007</v>
       </c>
@@ -2016,8 +1961,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>10000008</v>
       </c>
@@ -2028,6 +1976,9 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -2066,16 +2017,16 @@
         <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
         <v>82</v>
@@ -2092,16 +2043,16 @@
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
         <v>83</v>
@@ -2112,7 +2063,7 @@
         <v>1100003</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>100001</v>
@@ -2138,7 +2089,7 @@
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>400001</v>
@@ -2164,7 +2115,7 @@
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>510001</v>
@@ -2190,7 +2141,7 @@
         <v>1000004</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>105001</v>
@@ -2216,7 +2167,7 @@
         <v>1000005</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>200001</v>
@@ -2242,7 +2193,7 @@
         <v>1000006</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>610002</v>
@@ -2268,7 +2219,7 @@
         <v>1000007</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>610001</v>
@@ -2294,7 +2245,7 @@
         <v>1000008</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>620001</v>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEF3315-F9D6-455F-9437-007859D32455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2577F-4B4B-4965-B11C-71833FB1422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="268">
   <si>
     <t>カード番号</t>
     <rPh sb="3" eb="5">
@@ -177,125 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>織田信長</t>
-    <rPh sb="0" eb="4">
-      <t>オダノブナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伊能忠敬</t>
-    <rPh sb="0" eb="4">
-      <t>イノウタダタカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_jp_person_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_jp_person_002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緊急事態宣言</t>
-    <rPh sb="0" eb="4">
-      <t>キンキュウジタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_jp_policy_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_jp_policy_002</t>
-  </si>
-  <si>
-    <t>生類憐みの令</t>
-    <rPh sb="0" eb="3">
-      <t>ショウルイアワレ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八ツ橋</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_jp_goods_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_jp_goods_002</t>
-  </si>
-  <si>
-    <t>ゼロ戦</t>
-    <rPh sb="2" eb="3">
-      <t>セン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_jp_building_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>img_jp_building_002</t>
-  </si>
-  <si>
-    <t>軍艦島</t>
-    <rPh sb="0" eb="3">
-      <t>グンカンジマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京スカイツリー</t>
-    <rPh sb="0" eb="2">
-      <t>トウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本の戦国時代から安土桃山時代にかけての武将、戦国大名。戦国の三英傑の一人。 尾張国出身。織田信秀の嫡男。家督争いの混乱を収めた後に、桶狭間の戦いで今川義元を討ち取り、勢力を拡大した。足利義昭を奉じて上洛し、後には義昭を追放することで、畿内を中心に独自の中央政権を確立して天下人となった。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>江戸時代の商人、天文学者・地理学者・測量家である。通称は三郎右衛門、勘解由。字は子斉、号は東河。 寛政12年から文化13年まで、17年をかけて日本全国を測量して『大日本沿海輿地全図』を完成させ、国土の正確な姿を明らかにした。</t>
-  </si>
-  <si>
-    <t>新型インフルエンザ等対策特別措置法に基づいて日本国政府が発する布告。日本において新型インフルエンザなどの感染拡大によって国民生活や社会経済活動に甚大な影響が出ると判断した場合に基本的対処方針分科会の諮問を経て、内閣総理大臣が期間・区域を決めて発令することとされている。</t>
-  </si>
-  <si>
-    <t>江戸時代前期、江戸幕府の第5代将軍・徳川綱吉によって制定された、「生類を憐れむ」ことを趣旨とした動物・嬰児・傷病人保護を目的とした諸法令の通称。1本の成文法ではなく、綱吉時代に行われた生類を憐れむことを趣旨とした諸法令の総体である。 保護する対象は、捨て子や病人、高齢者、そして動物である。</t>
-  </si>
-  <si>
-    <t>京都を代表する和菓子の一つ。後述するが派生菓子として「生八ツ橋」が存在し、本来の八ツ橋は区別するために「焼き八ツ橋」とも呼ばれる</t>
-  </si>
-  <si>
-    <t>零式艦上戦闘機は、第二次世界大戦期における日本海軍の艦上戦闘機。略称、零戦。試作名称は十二試艦上戦闘機。</t>
-  </si>
-  <si>
-    <t>不気味な観光スポットである端島は、軍艦島とも呼ばれ、沖合にある廃墟となった炭鉱施設です。観光客は草木が生い茂る産業エリア、ほぼ廃墟と化したコンクリートの作業員向け施設、いわゆる「地獄への階段」を回ります。中央には静かな神社があり、外壁の上部からは東シナ海を望めます。ジェームス ボンド主演の映画「スカイフォール」は一部この島で撮影されました。</t>
-  </si>
-  <si>
-    <t>東京都墨田区押上1-1-2にある電波塔であり、東京のランドマークの一つである。2012年2月29日に完成し、同年5月22日に電波塔・観光施設として開業した。観光・商業施設やオフィスビルが併設されており、電波塔を含め周辺施設は「東京スカイツリータウン」と呼ばれている。</t>
-  </si>
-  <si>
     <t>年</t>
     <rPh sb="0" eb="1">
       <t>トシ</t>
@@ -303,38 +184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1534~1582</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1745~1818</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1685~1709</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1689~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1940~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>~1974</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ライフ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -592,16 +441,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山札３枚ドロー</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマフダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>山札を上から３枚引き、手札に加える。</t>
     <rPh sb="0" eb="2">
       <t>ヤマフダ</t>
@@ -624,77 +463,1327 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HP100回復</t>
+    <t>発動順序</t>
+    <rPh sb="0" eb="2">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍人</t>
+    <rPh sb="0" eb="2">
+      <t>グンジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_none_person_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東条英機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_none_goods_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_person_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカ合衆国は北アメリカ大陸に広がる広大な国です。大陸の北西部に位置するアラスカ州や太平洋のハワイ州も含め、50 の州から構成されています。主な大西洋岸の都市には、世界的な金融・文化の発信地ニューヨークや首都ワシントン D.C. などがあります。</t>
+  </si>
+  <si>
+    <t>img_usa_person_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_person_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_person_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_person_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_person_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_policy_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_policy_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_policy_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_policy_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_policy_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_policy_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_goods_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_goods_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_goods_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_goods_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_goods_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_goods_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_goods_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_goods_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_building_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_building_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_building_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_building_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_building_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_usa_building_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1400~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該国家の正規の軍事組織に所属し、正規の軍事訓練を受け、国家により認められた階級を与えられた者を指す。軍人は国際法上交戦権として、敵対勢力を破壊する権利を持つ。また敵対勢力に投降した場合には、捕虜として基本的人権が保障されている。</t>
+  </si>
+  <si>
+    <t>火薬の燃焼力を用いて大型の弾丸を高速で発射し、弾丸の運動量または弾丸自体の化学的な爆発によって敵および構造物を破壊・殺傷する兵器。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1884~1948</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏目漱石</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1867~1916</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏目 漱石は、日本の教師・小説家・評論家・英文学者・俳人。本名は夏目 金之助。俳号は愚陀仏。明治末期から大正初期にかけて活躍し、今日通用する言文一致の現代書き言葉を作った近代日本文学の文豪の一人。 代表作は『吾輩は猫である』『坊つちやん』『三四郎』『それから』『こゝろ』『明暗』など。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芥川龍之介</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1892~1927</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芥川 龍之介は、日本の小説家。号は澄江堂主人、俳号は我鬼。東京出身。『鼻』、『羅生門』、『地獄変』、『歯車』などで知られる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渋沢栄一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1840~1931</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渋沢 栄一は、日本の明治・大正期の実業家、財界の指導者。位階勲等爵位は正二位勲一等子爵。雅号は青淵。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東郷平八郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1848~1934</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本の海軍軍人。最終階級は元帥海軍大将。各地の東郷神社に名を残す。位階は従一位、勲位は大勲位、功級は功一級、爵位は侯爵。 日清戦争では「浪速」艦長として高陞号事件に対処。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真珠湾攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真珠湾攻撃は、第二次世界大戦において日本海軍が、アメリカ合衆国のハワイ準州オアフ島真珠湾にあったアメリカ海軍の太平洋艦隊と基地に対して行った、航空母艦艦載機および特殊潜航艇による奇襲攻撃である。当時の大日本帝国側呼称は布哇比海戦である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国家総動員法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国家総動員法は、1938年第1次近衛内閣によって第73帝国議会に提出され、同年4月1日に公布・制定された法律。日中戦争の長期化による国家総力戦の遂行のため、国家の全ての人的・物的資源を政府が統制運用できる旨を規定したもの。 田中義一内閣による1929年「総動員計画設定処務要綱案」から発展した法律である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大正デモクラシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1910~1920</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大正デモクラシー（たいしょうデモクラシー）とは、日本で1910年代から1920年代（概ね大正年間）にかけて起こった、政治・社会・文化の各方面における民本主義の発展、自由主義的な運動、風潮、思潮の総称である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロ戦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>零式艦上戦闘機は、第二次世界大戦期における日本海軍の艦上戦闘機。略称、零戦。試作名称は十二試艦上戦闘機。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召集令状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召集令状とは、軍隊が在郷の者を兵士として召集するために個人宛に発布する令状である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寿司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寿司とは、一般に米飯などと主に魚介類を組み合わせた和食。 伝統的にわさびと一緒に食べられる。 寿司には、乳酸を主たる酸味成分とする寿司と、酢酸を主たる酸味成分とする寿司がある。 握り寿司が代表的であるが、いなり寿司、押し寿司、ばら寿司など様々な形態がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>710~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本刀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本刀（にほんとう）は、日本固有の鍛冶製法によって作られた刀類の総称である。広義には、日本で製作された刀剣を指す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1600~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防空壕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防空壕は、空襲のときに待避するために地を掘って作った穴や構築物。敵の空襲から身をまもるために地下に造った穴や地下室。避難壕の一種である。地下壕とも。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京タワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京タワーは、東京都港区芝公園にある総合電波塔である。正式名称は日本電波塔。 1958年12月23日竣工。東京のシンボル、観光名所である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本固有の宗教である神道の信仰に基づく祭祀施設。産土神、天神地祇、皇室や氏族の祖神、偉人や義士などの霊などが神として祀られる。文部科学省の資料によれば日本全国に約8万5千の神社があり、登録されていない数万の小神社を含めると、日本各地には10万社を超える神社が存在している。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカ合衆国の軍人。アメリカ陸軍元帥、連合国軍最高司令官、国連軍司令官などを歴任した。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1880~1964</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二コラ・テスラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19世紀中期から20世紀中期の電気技師、発明家である。 グラーツ工科大学で学んだあと1881年にブダペストの電信会社に入社し技師として勤務。1884年にアメリカに渡りエジソンのもとで働くが1年後独立。1887年にTesla Electric Light and Manufacturingを設立。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1856~1943</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1882~1945</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカ合衆国の政治家、弁護士。ニューヨーク州議会上院議員（ダッチェス郡選出）、海軍次官、ニューヨーク州知事を歴任した。第32代アメリカ合衆国大統領。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アインシュタイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルベルト・アインシュタインは、ドイツ生まれの理論物理学者である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッカーサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーズベスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1879~1955</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パブロ・ルイス・ピカソは、スペインのマラガに生まれ、フランスで制作活動をした画家。フランス共産党員。 ジョルジュ・ブラックとともに、キュビスムの創始者として知られる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1881~1973</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピカソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューディール政策</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューディール政策は、1930年代にアメリカ合衆国大統領フランクリン・ルーズベルトが世界恐慌を克服するために行った一連の経済政策である。 新規まき直し政策や、単にニューディールとも呼ばれる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッドウェー海戦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二次世界大戦中の1942年6月5日から7日にかけて、中部太平洋上のアメリカ合衆国領ミッドウェー島付近で行われた海戦。同島攻略をめざす日本海軍をアメリカ軍が迎え撃つ形で発生。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界恐慌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界恐慌または大恐慌とは、1930年代にアメリカを皮切りに世界的に起こった深刻な経済恐慌のことである。世界恐慌の時期は国によって異なり、ほとんどの国では1929年に始まり、1930年代後半まで続いた。それは20世紀の中で最も長く、最も深く、最も広範な不況であった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原子爆弾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原子爆弾あるいは原爆は、ウランやプルトニウムなどの元素の原子核が起こす核分裂反応を使用した核爆弾であり、初めて戦争において攻撃用に実使用された核兵器である。原子爆弾は、核爆発装置に含まれる。水素爆弾を含めて「原水爆」とも呼ばれる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーイング B-29 スーパーフォートレスは、アメリカのボーイングが開発した大型戦略爆撃機。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーガー とは、牛肉のパティをバンズと呼ばれるパンに挟んだ食べ物。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーラとは、現在は炭酸飲料の一種である。アメリカ合衆国発のコカ・コーラとペプシコーラのほか、世界各地の企業が独自のコーラ飲料を生産・販売している。コカ・コーラは当初、独自のシロップを水で希釈した商品で、炭酸飲料ではなかった。コカ・コーラが炭酸飲料になったのは、提供時に誤って炭酸水で希釈したことが始まりだとされている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペンタゴン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペンタゴンは、アメリカ合衆国バージニア州に所在するアメリカ国防総省の本庁舎。転じて、国防総省そのものを意味することもある。名称は、特徴的な建物形状に由来する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1943~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトハウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトハウスは、アメリカ合衆国大統領が居住し、執務を行う官邸・公邸。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1800~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由の女神</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由の女神像は、アメリカ合衆国のニューヨーク港内、リバティ島にある像である。正式名称は世界を照らす自由 。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1886~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_person_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_person_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_person_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_jp_person_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札6枚になるように山札ドロー</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤマフダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の手札が6枚になるように山札を上から引く。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関東軍参謀長,陸軍次官をへて,第2次・第3次近衛内閣の陸相となり,対米英開戦を主張。 昭和16年首相(陸相・内相兼任)となり,太平洋戦争突入にふみきる。 翼賛選挙の実施と統制強化により憲兵政治,東条独裁とよばれる戦時体制をしいたが,戦局の悪化で倒閣運動がおこり,19年総辞職。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お互いに手札を山札に戻し切り、新たに2枚ドロー</t>
+    <rPh sb="1" eb="2">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お互いのプレイヤーは手札をすべて山札に戻し、切る。その後、お互いに山札を上から2枚引き手札にする。</t>
+    <rPh sb="1" eb="2">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テフダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から人物2枚配置</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から人物2枚取得（使用時）</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から人物1枚取得（配置時）</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お互いに手札を山札に戻し切り、新たに2枚ドロー（使用時）</t>
+    <rPh sb="24" eb="27">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札6枚になるように山札ドロー（使用時）</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札3枚ドロー（使用時）</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から政策1枚取得</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から政策1枚取得（配置時）</t>
+    <rPh sb="11" eb="14">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードを場に配置したとき発動する。自分の山札を見て、人物カードを2枚選び、自分の場に出す。その後、山札を切る。</t>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札を見て、人物カードを1枚選び、自分の場に出す。その後、山札を切る。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードを場に配置したとき発動する。自分の山札を見て、政策カードを1枚選び、手札に加える。その後、山札を切る。</t>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から「軍人」を2枚配置</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
     <rPh sb="5" eb="7">
+      <t>グンジン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から「軍人」を2枚配置（配置時）</t>
+    <rPh sb="14" eb="17">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードを場に配置したときに発動する。自分の山札を見て、人物カード「軍人」を2枚まで選び、自分の場に出す。その後、山札を切る。</t>
+    <rPh sb="6" eb="7">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>グンジン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から物資1枚取得</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブッシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札から物資1枚取得（使用時）</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブッシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札を見て、物資カードを1枚選び、手札に加える。その後、山札を切る。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブッシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択ユニットのHP全回復</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次相手ターン時にユニットへの攻撃を防ぐ</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>アイテ</t>
-    </rPh>
+    <t>選択ユニットのHP全回復（配置時）</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ゼンカイフク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードを場に配置したとき発動する。自分の人物カードを1枚選び、そのカードのHPをすべて回復する。</t>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー（自分）のHPを100回復する。</t>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーHP100回復</t>
+    <rPh sb="10" eb="12">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーHP100回復（使用時）</t>
+    <rPh sb="13" eb="16">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択ユニットのHP5回復</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択ユニットのHP5回復（配置時）</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の人物カードを1枚選び、そのカードのHPを5回復する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードを場に配置したとき発動する。自分の軍事力を30増加させる。</t>
     <rPh sb="6" eb="7">
-      <t>ジ</t>
+      <t>バ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>被ダメージ-50</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相手ユニット1枚に5ダメージ</t>
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の軍事力を50増加させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の軍事力を2倍にする。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードを場に配置したとき発動する。自分の国民数を2増加させる。</t>
+    <rPh sb="6" eb="7">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>コクミンスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の軍事力を60増加させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードを場に配置したとき発動する。自分の資金を50増加させる。</t>
+    <rPh sb="6" eb="7">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードが場にある限り、自分の1ターンごとに得られる資金量が20増加する。</t>
+    <rPh sb="6" eb="7">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードを場に配置したとき発動する。自分の資金を30増加させる。</t>
+    <rPh sb="6" eb="7">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択したユニットの攻撃力を3増加させる。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手の人物1枚に10ダメージ</t>
     <rPh sb="0" eb="2">
       <t>アイテ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="3" eb="5">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
       <t>マイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トラッシュから2枚選び山札に戻す</t>
-    <rPh sb="8" eb="9">
+    <t>相手の場の人物カードを1枚選び、10ダメージを与える。</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>マイ</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="13" eb="14">
       <t>エラ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヤマフダ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山札から政策カードを1枚取得</t>
+    <rPh sb="23" eb="24">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手の人物1枚に10ダメージ（使用時）</t>
     <rPh sb="0" eb="2">
-      <t>ヤマフダ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
       <t>マイ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
+    <rPh sb="15" eb="18">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードは自分の国民数が5以上でなければ使えない。自分の国民数を5減少させる。その後、自分の軍事力を150増加させる。</t>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コクミンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>コクミンスウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力+30</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -706,17 +1795,428 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発動順序</t>
+    <t>軍事力+60</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力+150</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力*2</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国民数+2</t>
+    <rPh sb="0" eb="3">
+      <t>コクミンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国民数-5</t>
+    <rPh sb="0" eb="3">
+      <t>コクミンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資金+30</t>
     <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資金+50</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン毎資金+20</t>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力+3</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードが場にある限り、自分のカードが受けるダメージは-3される。</t>
+    <rPh sb="6" eb="7">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット被ダメ-1（常時）</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット被ダメ-1</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー被ダメ-20</t>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー被ダメ-20（常時）</t>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードが場にある限り、プレイヤー（自分）が受けるダメージは-20される。</t>
+    <rPh sb="6" eb="7">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札5枚ドロー</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山札3枚ドロー</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資金-50</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資金50以上なら、資金-50後に山札5枚ドロー（配置時）</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の資金が50以上あるなら、このカードを場に配置したときに発動する。資金を50減少した後、山札を上から5枚引き手札に加える。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
       <t>ハツドウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジュンジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_order</t>
+    <rPh sb="35" eb="37">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="40" eb="45">
+      <t>ゲンショウシタアト</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の場に「ホワイトハウス」があるなら、資金+30（配置時）</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力+3（使用時）</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン毎資金+20（常時）</t>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資金+50（配置時）</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資金+30（配置時）</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国民数+2（配置時）</t>
+    <rPh sb="0" eb="3">
+      <t>コクミンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力*2（使用時）</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国民数5以上なら、国民数-5軍事力+150（使用時）</t>
+    <rPh sb="0" eb="3">
+      <t>コクミンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コクミンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力+60（使用時）</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力+50（使用時）</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力+30（配置時）</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ハイチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の場に「ホワイトハウス」があるなら、このカードを場に配置したときに発動する。自分の資金を30増加させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手の場のカード5枚破壊</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手の場のカード5枚破壊（使用時）</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手の場に出ている人物カードと建造物カードを合計５枚まで選び、破壊する。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -742,12 +2242,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF4D5156"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4D5156"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -755,22 +2249,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF202124"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -778,16 +2317,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1068,407 +2669,1320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593104F7-954C-4DB3-83B5-D4D85D589480}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.19921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" s="14" customFormat="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="G1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>67</v>
+    <row r="2" spans="1:12" s="15" customFormat="1">
+      <c r="A2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3">
+      <c r="A3" s="3">
+        <v>1001001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A4" s="2">
+        <v>1003001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>621001010</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="18.600000000000001" thickTop="1">
+      <c r="A5" s="9">
         <v>1011001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>510001030</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>101</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>1011002</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>105001010</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1">
+      <c r="A7" s="4">
+        <v>1011003</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>410001000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>101</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1">
+      <c r="A8" s="4">
+        <v>1011004</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>530001030</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>101</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1">
+      <c r="A9" s="4">
+        <v>1011005</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>101003010</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>101</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1">
+      <c r="A10" s="5">
+        <v>1012001</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>510002020</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>101</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1941</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1">
+      <c r="A11" s="5">
+        <v>1012002</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>510001150</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>101</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1938</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1">
+      <c r="A12" s="5">
+        <v>1012003</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100001030</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>101</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="6" customFormat="1">
+      <c r="A13" s="6">
+        <v>1013001</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>510001050</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>101</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1937</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1">
+      <c r="A14" s="6">
+        <v>1013002</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>102002020</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>101</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1941</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1">
+      <c r="A15" s="6">
+        <v>1013003</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>400001010</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>101</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1">
+      <c r="A16" s="6">
+        <v>1013004</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>550001030</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>101</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A17" s="7">
+        <v>1014001</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>610003030</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>101</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1944</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1">
+      <c r="A18" s="7">
+        <v>1014002</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>540001020</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>101</v>
+      </c>
+      <c r="G18" s="7">
+        <v>8</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1958</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A19" s="10">
+        <v>1014003</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10">
+        <v>610001020</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>101</v>
+      </c>
+      <c r="G19" s="10">
+        <v>15</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>12</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="9" customFormat="1" ht="18.600000000000001" thickTop="1">
+      <c r="A20" s="9">
+        <v>1021001</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>102002010</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>102</v>
+      </c>
+      <c r="G20" s="9">
+        <v>6</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5</v>
+      </c>
+      <c r="I20" s="9">
+        <v>10</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1">
+      <c r="A21" s="8">
+        <v>1021002</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>100001050</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>102</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1">
+      <c r="A22" s="8">
+        <v>1021003</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>530001031</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>102</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1">
+      <c r="A23" s="8">
+        <v>1021004</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>104001010</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>102</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1">
+      <c r="A24" s="8">
+        <v>1021005</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>520001020</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>102</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1">
+      <c r="A25" s="5">
+        <v>1022001</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>100002060</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>102</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>8</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1930</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1">
+      <c r="A26" s="5">
+        <v>1022002</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>510002020</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>102</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>8</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1942</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1">
+      <c r="A27" s="5">
+        <v>1022003</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>100003020</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>102</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>12</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1929</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="6" customFormat="1">
+      <c r="A28" s="6">
+        <v>1023001</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>710002050</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>102</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10000003</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="J28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1945</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="6" customFormat="1">
+      <c r="A29" s="6">
+        <v>1023002</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>510001060</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>102</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>15</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1">
+      <c r="A30" s="6">
+        <v>1023003</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>400001010</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>102</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1904</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="6" customFormat="1">
+      <c r="A31" s="6">
+        <v>1023004</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>410001050</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>102</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1886</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="11" customFormat="1">
+      <c r="A32" s="11">
+        <v>1024001</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="11">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11">
+        <v>610001020</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2</v>
+      </c>
+      <c r="F32" s="11">
+        <v>102</v>
+      </c>
+      <c r="G32" s="11">
+        <v>5</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>8</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>1011002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10000002</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>101</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>1012001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="33" spans="1:12" s="11" customFormat="1">
+      <c r="A33" s="11">
+        <v>1024002</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="11">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11">
+        <v>530001050</v>
+      </c>
+      <c r="E33" s="11">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>10000001</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>101</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>1012002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
+      <c r="F33" s="11">
+        <v>102</v>
+      </c>
+      <c r="G33" s="11">
+        <v>8</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>8</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="11" customFormat="1">
+      <c r="A34" s="11">
+        <v>1024003</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="11">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11">
+        <v>520001020</v>
+      </c>
+      <c r="E34" s="11">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>10000004</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>101</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>1013001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>10000005</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>101</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>1013002</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>10000006</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>101</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="F34" s="11">
+        <v>102</v>
+      </c>
+      <c r="G34" s="11">
         <v>8</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>1014001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>10000007</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>101</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>1014002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>10000008</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>101</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>8</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1480,16 +3994,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518A95A-FFCC-4E0B-84F1-96DC87F30AAC}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.796875" customWidth="1"/>
@@ -1499,70 +4014,70 @@
     <col min="9" max="9" width="26.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>10000001</v>
+        <v>100001030</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1583,21 +4098,21 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>10000002</v>
+        <v>100001050</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>9003</v>
@@ -1606,21 +4121,21 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>10000003</v>
+        <v>100002060</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1635,21 +4150,21 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8002</v>
+        <v>8004</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>10000004</v>
+        <v>100003020</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1670,15 +4185,15 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>10000005</v>
+        <v>101003010</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1693,21 +4208,21 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>10000006</v>
+        <v>102002010</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1722,21 +4237,21 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>10000007</v>
+        <v>102002020</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1751,21 +4266,21 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8002</v>
+        <v>8004</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>10000008</v>
+        <v>104001010</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1780,13 +4295,564 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>8002</v>
+        <v>8004</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>105001010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>9003</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>8001</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>400001010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>9003</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>8004</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>410001000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>9003</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>8001</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>410001050</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>9003</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>8004</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>510001030</v>
+      </c>
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>9003</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>8001</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>510001050</v>
+      </c>
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>9003</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>8004</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>510001060</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>9003</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>8004</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>510001150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18">
+        <v>1201</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>9003</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>8004</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>510002020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>9003</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>8004</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>520001020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>9003</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>8001</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>530001030</v>
+      </c>
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>9003</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>8001</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>530001031</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22">
+        <v>3301</v>
+      </c>
+      <c r="D22">
+        <v>1024002</v>
+      </c>
+      <c r="E22">
+        <v>9003</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>8001</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>530001050</v>
+      </c>
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>9003</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>8001</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>540001020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9003</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>8000</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>550001030</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>9003</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>8004</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>610001020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>9003</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>8000</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>610003030</v>
+      </c>
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>9003</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>8000</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>621001010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>9003</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>8004</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>710002050</v>
+      </c>
+      <c r="B29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>9003</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>8004</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1797,10 +4863,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB2275B-2918-473B-BCBA-1F1FB5A7B771}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1812,46 +4879,46 @@
     <col min="5" max="5" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="17" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>91</v>
+      <c r="E1" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>10000001</v>
+        <v>100001030</v>
       </c>
       <c r="B3">
-        <v>1100003</v>
+        <v>10000103</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1865,10 +4932,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>10000002</v>
+        <v>100001050</v>
       </c>
       <c r="B4">
-        <v>1000002</v>
+        <v>53000305</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1882,13 +4949,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>10000003</v>
+        <v>100001050</v>
       </c>
       <c r="B5">
-        <v>1000003</v>
+        <v>10000105</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1899,10 +4966,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>10000004</v>
+        <v>100002060</v>
       </c>
       <c r="B6">
-        <v>1000004</v>
+        <v>10000206</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1916,10 +4983,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>10000005</v>
+        <v>100003020</v>
       </c>
       <c r="B7">
-        <v>1000005</v>
+        <v>10000302</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1933,10 +5000,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>10000006</v>
+        <v>101003010</v>
       </c>
       <c r="B8">
-        <v>1000006</v>
+        <v>10100301</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1950,10 +5017,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>10000007</v>
+        <v>102002010</v>
       </c>
       <c r="B9">
-        <v>1000007</v>
+        <v>10200201</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1967,10 +5034,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>10000008</v>
+        <v>102002020</v>
       </c>
       <c r="B10">
-        <v>1000008</v>
+        <v>10200202</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1979,6 +5046,363 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>104001010</v>
+      </c>
+      <c r="B11">
+        <v>10400101</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>105001010</v>
+      </c>
+      <c r="B12">
+        <v>10500101</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>400001010</v>
+      </c>
+      <c r="B13">
+        <v>40000101</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>410001000</v>
+      </c>
+      <c r="B14">
+        <v>41000100</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>410001050</v>
+      </c>
+      <c r="B15">
+        <v>41000105</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>510001030</v>
+      </c>
+      <c r="B16">
+        <v>51000103</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>510001050</v>
+      </c>
+      <c r="B17">
+        <v>51000105</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>510001060</v>
+      </c>
+      <c r="B18">
+        <v>51000106</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>510001150</v>
+      </c>
+      <c r="B19">
+        <v>52000305</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>510001150</v>
+      </c>
+      <c r="B20">
+        <v>51000115</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>510002020</v>
+      </c>
+      <c r="B21">
+        <v>51000202</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>520001020</v>
+      </c>
+      <c r="B22">
+        <v>52000102</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>530001030</v>
+      </c>
+      <c r="B23">
+        <v>53000103</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>530001031</v>
+      </c>
+      <c r="B24">
+        <v>53000103</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>530001050</v>
+      </c>
+      <c r="B25">
+        <v>53000105</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>540001020</v>
+      </c>
+      <c r="B26">
+        <v>54000102</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>550001030</v>
+      </c>
+      <c r="B27">
+        <v>55000103</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>610001020</v>
+      </c>
+      <c r="B28">
+        <v>61000102</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>610003030</v>
+      </c>
+      <c r="B29">
+        <v>61000303</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>621001010</v>
+      </c>
+      <c r="B30">
+        <v>62100101</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>710002050</v>
+      </c>
+      <c r="B31">
+        <v>71000205</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
     </row>
@@ -1990,80 +5414,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" customWidth="1"/>
     <col min="5" max="7" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="17" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
+      <c r="C1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1100003</v>
+        <v>10000103</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="C3">
         <v>100001</v>
@@ -2086,19 +5511,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1000002</v>
+        <v>10000105</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="C4">
-        <v>400001</v>
+        <v>100001</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2112,19 +5537,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>1000003</v>
+        <v>10000206</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C5">
-        <v>510001</v>
+        <v>100002</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2138,19 +5563,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>1000004</v>
+        <v>10000302</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="C6">
-        <v>105001</v>
+        <v>100003</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2164,13 +5589,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>1000005</v>
+        <v>10100301</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="C7">
-        <v>200001</v>
+        <v>101003</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2179,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1001001</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2190,19 +5615,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>1000006</v>
+        <v>10200201</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="C8">
-        <v>610002</v>
+        <v>102002</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2216,19 +5641,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>1000007</v>
+        <v>10200202</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="C9">
-        <v>610001</v>
+        <v>102002</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2242,27 +5667,547 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1000008</v>
+        <v>10400101</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="C10">
-        <v>620001</v>
+        <v>104001</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10500101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11">
+        <v>105001</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>40000101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12">
+        <v>400001</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>41000100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13">
+        <v>410001</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>41000105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14">
+        <v>410001</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>51000103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15">
+        <v>510001</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>51000105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16">
+        <v>510001</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>51000106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17">
+        <v>510001</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>51000115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18">
+        <v>510001</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>51000202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19">
+        <v>510002</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>52000102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20">
+        <v>520001</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>52000305</v>
+      </c>
+      <c r="B21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21">
+        <v>520003</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>53000103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22">
+        <v>530001</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>53000105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23">
+        <v>530001</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>53000305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24">
+        <v>530003</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>54000102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25">
+        <v>540001</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>55000103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26">
+        <v>550001</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>61000102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27">
+        <v>610001</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>61000303</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28">
+        <v>610003</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>62100101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29">
+        <v>621001</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>71000205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30">
+        <v>710002</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>100</v>
       </c>
     </row>
@@ -2274,39 +6219,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB060794-09D8-4349-BF0F-C225BB52104D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="17" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,6 +6264,17 @@
       </c>
       <c r="C3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2577F-4B4B-4965-B11C-71833FB1422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6BCE3E-8D6F-46BB-A589-2B7FABF45712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="273">
   <si>
     <t>カード番号</t>
     <rPh sb="3" eb="5">
@@ -2217,6 +2217,41 @@
   </si>
   <si>
     <t>相手の場に出ている人物カードと建造物カードを合計５枚まで選び、破壊する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未設定</t>
+    <rPh sb="0" eb="3">
+      <t>ミセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未設定です。</t>
+    <rPh sb="0" eb="3">
+      <t>ミセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力なし</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果なし</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果なし。</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2672,7 +2707,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -3994,11 +4029,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518A95A-FFCC-4E0B-84F1-96DC87F30AAC}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4074,10 +4109,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>100001030</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4086,33 +4121,33 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9003</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>8004</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>100001050</v>
+        <v>100001030</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="C4">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>9003</v>
@@ -4121,27 +4156,27 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>8001</v>
+        <v>8004</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>100002060</v>
+        <v>100001050</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>9003</v>
@@ -4150,21 +4185,21 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>100003020</v>
+        <v>100002060</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4185,15 +4220,15 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>101003010</v>
+        <v>100003020</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4208,21 +4243,21 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>8001</v>
+        <v>8004</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>102002010</v>
+        <v>101003010</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4243,15 +4278,15 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>102002020</v>
+        <v>102002010</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4266,21 +4301,21 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>104001010</v>
+        <v>102002020</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4301,15 +4336,15 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>105001010</v>
+        <v>104001010</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4324,21 +4359,21 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8001</v>
+        <v>8004</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>400001010</v>
+        <v>105001010</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4353,21 +4388,21 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>410001000</v>
+        <v>400001010</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4382,21 +4417,21 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>8001</v>
+        <v>8004</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>410001050</v>
+        <v>410001000</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4411,21 +4446,21 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>510001030</v>
+        <v>410001050</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4440,21 +4475,21 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>8001</v>
+        <v>8004</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>510001050</v>
+        <v>510001030</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4469,21 +4504,21 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>510001060</v>
+        <v>510001050</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4504,21 +4539,21 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>510001150</v>
+        <v>510001060</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C18">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>9003</v>
@@ -4533,21 +4568,21 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>510002020</v>
+        <v>510001150</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>9003</v>
@@ -4562,15 +4597,15 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>520001020</v>
+        <v>510002020</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4585,21 +4620,21 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>8001</v>
+        <v>8004</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>530001030</v>
+        <v>520001020</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4620,21 +4655,21 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>530001031</v>
+        <v>530001030</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C22">
-        <v>3301</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1024002</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>9003</v>
@@ -4649,21 +4684,21 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>530001050</v>
+        <v>530001031</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3301</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1024002</v>
       </c>
       <c r="E23">
         <v>9003</v>
@@ -4678,15 +4713,15 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>540001020</v>
+        <v>530001050</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4701,21 +4736,21 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>8000</v>
+        <v>8001</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>550001030</v>
+        <v>540001020</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4730,21 +4765,21 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>8004</v>
+        <v>8000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>610001020</v>
+        <v>550001030</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4759,21 +4794,21 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>8000</v>
+        <v>8004</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>610003030</v>
+        <v>610001020</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4794,15 +4829,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>621001010</v>
+        <v>610003030</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4817,21 +4852,21 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>8004</v>
+        <v>8000</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>710002050</v>
+        <v>621001010</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4852,6 +4887,35 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>710002050</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>9003</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>8004</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4863,11 +4927,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB2275B-2918-473B-BCBA-1F1FB5A7B771}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4915,10 +4979,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>100001030</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>10000103</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4932,10 +4996,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>100001050</v>
+        <v>100001030</v>
       </c>
       <c r="B4">
-        <v>53000305</v>
+        <v>10000103</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4952,10 +5016,10 @@
         <v>100001050</v>
       </c>
       <c r="B5">
-        <v>10000105</v>
+        <v>53000305</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4966,13 +5030,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>100002060</v>
+        <v>100001050</v>
       </c>
       <c r="B6">
-        <v>10000206</v>
+        <v>10000105</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4983,10 +5047,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>100003020</v>
+        <v>100002060</v>
       </c>
       <c r="B7">
-        <v>10000302</v>
+        <v>10000206</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5000,10 +5064,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>101003010</v>
+        <v>100003020</v>
       </c>
       <c r="B8">
-        <v>10100301</v>
+        <v>10000302</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5017,10 +5081,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>102002010</v>
+        <v>101003010</v>
       </c>
       <c r="B9">
-        <v>10200201</v>
+        <v>10100301</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5034,10 +5098,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>102002020</v>
+        <v>102002010</v>
       </c>
       <c r="B10">
-        <v>10200202</v>
+        <v>10200201</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5051,10 +5115,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>104001010</v>
+        <v>102002020</v>
       </c>
       <c r="B11">
-        <v>10400101</v>
+        <v>10200202</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5068,10 +5132,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>105001010</v>
+        <v>104001010</v>
       </c>
       <c r="B12">
-        <v>10500101</v>
+        <v>10400101</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -5085,10 +5149,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>400001010</v>
+        <v>105001010</v>
       </c>
       <c r="B13">
-        <v>40000101</v>
+        <v>10500101</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -5102,10 +5166,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>410001000</v>
+        <v>400001010</v>
       </c>
       <c r="B14">
-        <v>41000100</v>
+        <v>40000101</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -5119,10 +5183,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>410001050</v>
+        <v>410001000</v>
       </c>
       <c r="B15">
-        <v>41000105</v>
+        <v>41000100</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -5136,10 +5200,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>510001030</v>
+        <v>410001050</v>
       </c>
       <c r="B16">
-        <v>51000103</v>
+        <v>41000105</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5153,10 +5217,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>510001050</v>
+        <v>510001030</v>
       </c>
       <c r="B17">
-        <v>51000105</v>
+        <v>51000103</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5170,10 +5234,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>510001060</v>
+        <v>510001050</v>
       </c>
       <c r="B18">
-        <v>51000106</v>
+        <v>51000105</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5187,10 +5251,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>510001150</v>
+        <v>510001060</v>
       </c>
       <c r="B19">
-        <v>52000305</v>
+        <v>51000106</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5207,10 +5271,10 @@
         <v>510001150</v>
       </c>
       <c r="B20">
-        <v>51000115</v>
+        <v>52000305</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5221,13 +5285,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>510002020</v>
+        <v>510001150</v>
       </c>
       <c r="B21">
-        <v>51000202</v>
+        <v>51000115</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5238,10 +5302,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>520001020</v>
+        <v>510002020</v>
       </c>
       <c r="B22">
-        <v>52000102</v>
+        <v>51000202</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5255,10 +5319,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>530001030</v>
+        <v>520001020</v>
       </c>
       <c r="B23">
-        <v>53000103</v>
+        <v>52000102</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5272,7 +5336,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>530001031</v>
+        <v>530001030</v>
       </c>
       <c r="B24">
         <v>53000103</v>
@@ -5289,10 +5353,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>530001050</v>
+        <v>530001031</v>
       </c>
       <c r="B25">
-        <v>53000105</v>
+        <v>53000103</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5306,10 +5370,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>540001020</v>
+        <v>530001050</v>
       </c>
       <c r="B26">
-        <v>54000102</v>
+        <v>53000105</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5323,10 +5387,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>550001030</v>
+        <v>540001020</v>
       </c>
       <c r="B27">
-        <v>55000103</v>
+        <v>54000102</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5340,10 +5404,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>610001020</v>
+        <v>550001030</v>
       </c>
       <c r="B28">
-        <v>61000102</v>
+        <v>55000103</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5357,10 +5421,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>610003030</v>
+        <v>610001020</v>
       </c>
       <c r="B29">
-        <v>61000303</v>
+        <v>61000102</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5374,10 +5438,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>621001010</v>
+        <v>610003030</v>
       </c>
       <c r="B30">
-        <v>62100101</v>
+        <v>61000303</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5391,18 +5455,35 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
+        <v>621001010</v>
+      </c>
+      <c r="B31">
+        <v>62100101</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>710002050</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>71000205</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
     </row>
@@ -5414,11 +5495,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5485,19 +5566,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>10000103</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C3">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5506,15 +5587,15 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>10000105</v>
+        <v>10000103</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C4">
         <v>100001</v>
@@ -5523,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5537,19 +5618,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>10000206</v>
+        <v>10000105</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C5">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5563,19 +5644,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>10000302</v>
+        <v>10000206</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5589,22 +5670,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>10100301</v>
+        <v>10000302</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C7">
-        <v>101003</v>
+        <v>100003</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1001001</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5615,22 +5696,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>10200201</v>
+        <v>10100301</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C8">
-        <v>102002</v>
+        <v>101003</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1001001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5641,7 +5722,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>10200202</v>
+        <v>10200201</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -5653,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5667,19 +5748,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>10400101</v>
+        <v>10200202</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C10">
-        <v>104001</v>
+        <v>102002</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5693,13 +5774,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>10500101</v>
+        <v>10400101</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C11">
-        <v>105001</v>
+        <v>104001</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5719,19 +5800,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>40000101</v>
+        <v>10500101</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C12">
-        <v>400001</v>
+        <v>105001</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -5745,19 +5826,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>41000100</v>
+        <v>40000101</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C13">
-        <v>410001</v>
+        <v>400001</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -5771,10 +5852,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>41000105</v>
+        <v>41000100</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C14">
         <v>410001</v>
@@ -5783,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -5797,19 +5878,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>51000103</v>
+        <v>41000105</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C15">
-        <v>510001</v>
+        <v>410001</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -5823,10 +5904,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>51000105</v>
+        <v>51000103</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16">
         <v>510001</v>
@@ -5835,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -5849,10 +5930,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>51000106</v>
+        <v>51000105</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17">
         <v>510001</v>
@@ -5861,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -5875,10 +5956,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>51000115</v>
+        <v>51000106</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18">
         <v>510001</v>
@@ -5887,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -5901,19 +5982,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>51000202</v>
+        <v>51000115</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19">
-        <v>510002</v>
+        <v>510001</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -5927,13 +6008,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>52000102</v>
+        <v>51000202</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20">
-        <v>520001</v>
+        <v>510002</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -5953,19 +6034,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>52000305</v>
+        <v>52000102</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21">
-        <v>520003</v>
+        <v>520001</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -5979,19 +6060,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>53000103</v>
+        <v>52000305</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22">
-        <v>530001</v>
+        <v>520003</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -6005,10 +6086,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>53000105</v>
+        <v>53000103</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23">
         <v>530001</v>
@@ -6017,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -6031,13 +6112,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>53000305</v>
+        <v>53000105</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C24">
-        <v>530003</v>
+        <v>530001</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -6057,19 +6138,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>54000102</v>
+        <v>53000305</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C25">
-        <v>540001</v>
+        <v>530003</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -6083,22 +6164,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>55000103</v>
+        <v>54000102</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C26">
-        <v>550001</v>
+        <v>540001</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -6109,22 +6190,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>61000102</v>
+        <v>55000103</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C27">
-        <v>610001</v>
+        <v>550001</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -6135,19 +6216,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>61000303</v>
+        <v>61000102</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28">
-        <v>610003</v>
+        <v>610001</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -6161,22 +6242,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>62100101</v>
+        <v>61000303</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C29">
-        <v>621001</v>
+        <v>610003</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6187,27 +6268,53 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>71000205</v>
+        <v>62100101</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C30">
-        <v>710002</v>
+        <v>621001</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>71000205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31">
+        <v>710002</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>100</v>
       </c>
     </row>
@@ -6219,11 +6326,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB060794-09D8-4349-BF0F-C225BB52104D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6257,23 +6364,34 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6BCE3E-8D6F-46BB-A589-2B7FABF45712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318C9B0-ECEC-428B-B5AF-59397C7C3C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardMain" sheetId="2" r:id="rId1"/>
@@ -2706,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593104F7-954C-4DB3-83B5-D4D85D589480}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
@@ -5497,9 +5497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6306,10 +6306,10 @@
         <v>2</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>5</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318C9B0-ECEC-428B-B5AF-59397C7C3C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62AF90-FEED-4D4C-BB21-166D3DF53279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5498,8 +5498,8 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5864,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="F14">
         <v>1</v>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62AF90-FEED-4D4C-BB21-166D3DF53279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350E233-35CC-4042-82BC-46320CD40AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,63 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1C5AC743-366A-4C95-A5B1-DFCFB8F0DAE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">効果の値
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C51D5E3E-7F98-48D7-889B-76142DCC8983}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">効果を受けるユニット数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{82E9D337-1F84-4DDE-B3ED-B94BE22C2D38}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">持続ターン数
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="273">
   <si>
@@ -2259,7 +2316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2298,6 +2355,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -5494,12 +5566,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6321,6 +6393,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350E233-35CC-4042-82BC-46320CD40AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059FE8A4-CA9C-4AFC-A874-4D32A2633C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardMain" sheetId="2" r:id="rId1"/>
@@ -2780,7 +2780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2922,7 +2922,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>621001010</v>
@@ -4103,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518A95A-FFCC-4E0B-84F1-96DC87F30AAC}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -5002,8 +5002,8 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5569,9 +5569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6401,9 +6401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB060794-09D8-4349-BF0F-C225BB52104D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6471,5 +6471,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059FE8A4-CA9C-4AFC-A874-4D32A2633C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996B7CD8-931E-44C3-9DC6-44335FE69D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardMain" sheetId="2" r:id="rId1"/>
@@ -5569,9 +5569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AA100-A3CD-40EE-810B-C53EF7BC9F7C}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6372,7 +6372,7 @@
         <v>265</v>
       </c>
       <c r="C31">
-        <v>710002</v>
+        <v>710001</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -6401,7 +6401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB060794-09D8-4349-BF0F-C225BB52104D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>

--- a/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
+++ b/StrategyTCG/Assets/Resources/MasterData/excel/Card.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996B7CD8-931E-44C3-9DC6-44335FE69D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE291FD-2B02-456A-9352-415A4CDB9103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5570,8 +5570,8 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H29">
         <v>100</v>
